--- a/medicine/Enfance/Svein_Nyhus/Svein_Nyhus.xlsx
+++ b/medicine/Enfance/Svein_Nyhus/Svein_Nyhus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Svein Nyhus, né le 23 janvier 1962 à Tønsberg en Norvège, est un dessinateur norvégien et un auteur et illustrateur de livres pour enfants.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a produit des albums illustrés en coopération avec sa femme, la poétesse Gro Dahle. Son album Papa! a été publié en français en 2005.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix du livre Unni Sands  (1999)
 Prix littéraire Skolebibliotekarforeningens (2000)
@@ -552,7 +568,7 @@
 Bokkunstprisen (2010)
 Prix de littérature jeunesse de la critique norvégienne (2014)
 Prix spécial du ministère de la culture (2018)
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée[1]</t>
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée</t>
         </is>
       </c>
     </row>
